--- a/excel/vgl2verf.xlsx
+++ b/excel/vgl2verf.xlsx
@@ -440,252 +440,252 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41.65189158332781</v>
+        <v>17.22007384953266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.007462132955373449</v>
+        <v>0.02245675322509391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.006937335167615411</v>
+        <v>0.01129055760648142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.913992485926651</v>
+        <v>2.941825056246385</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2928635507549013</v>
+        <v>-0.4245883960254032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01238056261108687</v>
+        <v>0.0133701436637199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01134825222400224</v>
+        <v>0.02018241023520227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001100834524447786</v>
+        <v>-0.002157884658458533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>89.18283835470854</v>
+        <v>29.26240601681292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.1390519792818958</v>
+        <v>0.2268946505672714</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.1351032605997549</v>
+        <v>0.2332721536356408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.03455238446533006</v>
+        <v>0.03098651305924275</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.03003082266976573</v>
+        <v>0.03628139414119549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.004256656651681907</v>
+        <v>0.01054064878368228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.02318429920623791</v>
+        <v>0.03283671708321414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9088004480764792</v>
+        <v>1.10737403104374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-1.583235777782382</v>
+        <v>5.768366524840839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.01042764483764025</v>
+        <v>0.01454568764719767</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.01227647946961185</v>
+        <v>0.01615463476838647</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.08816772442305104</v>
+        <v>0.1893576383714796</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0257304773693368</v>
+        <v>0.04078142137439045</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.01146563390808531</v>
+        <v>0.01707168454753666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.03584092651142576</v>
+        <v>0.04609829265284798</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.0243461785045294</v>
+        <v>0.05252799068142082</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.2211629545993639</v>
+        <v>12.53667270744905</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.01093319531526791</v>
+        <v>0.02961087782378509</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.007697734473191972</v>
+        <v>0.01082756466631025</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.04310171075656989</v>
+        <v>0.04751082016319612</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1565685062757277</v>
+        <v>0.2173206976458477</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>28.15195694742989</v>
+        <v>7.736388965966462</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.004212246255565687</v>
+        <v>0.009642594206394331</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5.947498491361645</v>
+        <v>13.63839065952591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.0572644003002773</v>
+        <v>0.06817216924124131</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-31.66082457022256</v>
+        <v>-11.85943109836935</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.01685095072801321</v>
+        <v>0.0237188662932965</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.007666149454849653</v>
+        <v>0.0135614254142026</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.005179802004095462</v>
+        <v>0.008994229025003466</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.00937210515080587</v>
+        <v>0.01196729067177559</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.01033480659603253</v>
+        <v>0.01356752146773606</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.04987079750595386</v>
+        <v>0.08081888554647262</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.3066074682208938</v>
+        <v>0.326646871403603</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.07799615688421078</v>
+        <v>0.1025838851287098</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.0156801612304876</v>
+        <v>0.01223179851585957</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.009469390083620457</v>
+        <v>0.01231313405185134</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.007565812729228898</v>
+        <v>0.01255299009263777</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.01192412479160314</v>
+        <v>0.0191077515340826</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.02055442654755781</v>
+        <v>0.02697638185440306</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.01828093592102716</v>
+        <v>0.0363004125503688</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.0169828335740151</v>
+        <v>0.02242460040312246</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.01053659879697481</v>
+        <v>0.01482386655002943</v>
       </c>
     </row>
   </sheetData>
